--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -2536,6 +2536,26 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Angin</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>27</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Subscribed</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
